--- a/uploads/Job_details_V0.1_06-18-2024.xlsx
+++ b/uploads/Job_details_V0.1_06-18-2024.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A440D1EF-85CD-490F-BB6A-779CD53D76C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tewodros\Documents\Aleph Tav Project\7Jobs\DjangoScraping\sebatflaskapp\uploads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153FFF78-1549-44B0-8F72-40E91357A2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,12 +44,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="133">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
   <si>
     <t>job_title</t>
   </si>
@@ -574,6 +571,12 @@
   </si>
   <si>
     <t>Volunteer</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>password</t>
   </si>
 </sst>
 </file>
@@ -1024,131 +1027,131 @@
   <dimension ref="A1:BA200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="17.75" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="10" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="16.375" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="17" max="17" width="16.75" customWidth="1"/>
+    <col min="18" max="18" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="2" customFormat="1" ht="31.5" customHeight="1">
       <c r="A1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1158,54 +1161,54 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1215,55 +1218,55 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BA3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1275,51 +1278,51 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BA4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1329,59 +1332,59 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BA5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1391,59 +1394,59 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U6" s="1"/>
       <c r="V6" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BA6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1453,57 +1456,57 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U7" s="1"/>
       <c r="V7" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BA7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1513,62 +1516,62 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="Y8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AV8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BA8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1580,56 +1583,56 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AV9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BA9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1639,60 +1642,60 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U10" s="1"/>
       <c r="V10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="Y10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AV10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BA10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1702,30 +1705,30 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="Y11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AV11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BA11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:53">
@@ -1752,10 +1755,10 @@
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
       <c r="AV12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BA12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:53">
@@ -1782,10 +1785,10 @@
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="AV13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BA13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:53">
@@ -1812,10 +1815,10 @@
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
       <c r="AV14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BA14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:53">
@@ -1842,10 +1845,10 @@
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="AV15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:53">
@@ -1872,10 +1875,10 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="AV16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BA16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="4:53">
@@ -1902,10 +1905,10 @@
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="AV17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BA17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="4:53">
@@ -1932,10 +1935,10 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="AV18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BA18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="4:53">
@@ -1962,10 +1965,10 @@
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="AV19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BA19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="4:53">
@@ -1992,10 +1995,10 @@
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
       <c r="AV20" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BA20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="4:53">
@@ -2022,7 +2025,7 @@
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
       <c r="BA21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="4:53">
@@ -2049,10 +2052,10 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="AV22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BA22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="4:53">
@@ -2079,10 +2082,10 @@
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
       <c r="AV23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BA23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="4:53">
@@ -2109,10 +2112,10 @@
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
       <c r="AV24" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BA24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="4:53">
@@ -2139,10 +2142,10 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="AV25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BA25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="4:53">
@@ -2169,7 +2172,7 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="AV26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="4:53">
@@ -2196,10 +2199,10 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="AV27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BA27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="4:53">
@@ -2226,10 +2229,10 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="AV28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="BA28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="4:53">
@@ -2256,10 +2259,10 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="AV29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BA29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="4:53">
@@ -2286,7 +2289,7 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="AV30" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="4:53">
@@ -2313,10 +2316,10 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="AV31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BA31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="4:53">
@@ -2343,10 +2346,10 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="AV32" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BA32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="4:53">
@@ -2373,10 +2376,10 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="AV33" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BA33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="4:53">
@@ -2403,7 +2406,7 @@
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
       <c r="BA34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="4:53">
@@ -2430,10 +2433,10 @@
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
       <c r="AV35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BA35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="4:53">
@@ -2460,10 +2463,10 @@
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
       <c r="AV36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BA36" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="4:53">
@@ -2490,7 +2493,7 @@
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
       <c r="AV37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="4:53">
@@ -2517,7 +2520,7 @@
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
       <c r="AV38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="4:53">
@@ -2544,7 +2547,7 @@
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
       <c r="AV39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="4:53">
@@ -2571,7 +2574,7 @@
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
       <c r="AV40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="4:53">
@@ -2598,7 +2601,7 @@
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
       <c r="AV41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="4:53">
@@ -2625,7 +2628,7 @@
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
       <c r="AV42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="4:53">
@@ -2652,7 +2655,7 @@
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
       <c r="AV43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="4:53">
@@ -2679,7 +2682,7 @@
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
       <c r="AV44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="4:53">
@@ -2706,7 +2709,7 @@
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
       <c r="AV45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46" spans="4:53">
@@ -2733,7 +2736,7 @@
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
       <c r="AV46" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="4:53">
